--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>321.0143940269157</v>
+        <v>385.380388819194</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3579998016357422</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.91439402691221</v>
+        <v>41.38038881919395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.683053194461346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.683053194461346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>277.1000000000034</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.53018219295431</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.55844691287496</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>35.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>105.6119999999992</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01899999999947</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23199999999985</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97800000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.0980000000012</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>88.01899999999947</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>105.6119999999992</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>122.0980000000012</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.611999999999164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09800000000118</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1280,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6">
@@ -1332,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
